--- a/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
+++ b/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F64CA-7F90-834B-B9F3-C3B66B44695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CBC38A-62A0-FD4B-9CCC-E54A69FCA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="14780" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="14880" windowHeight="18380" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="admin" sheetId="12" r:id="rId10"/>
     <sheet name="apps" sheetId="13" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Variable</t>
   </si>
@@ -85,24 +88,6 @@
     <t>ForeignKey</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>"html"</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>retrieve</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>functions</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
   </si>
   <si>
     <t>firstname</t>
-  </si>
-  <si>
-    <t>CustomerUserProfile</t>
   </si>
   <si>
     <t>models.EmailField()</t>
@@ -312,11 +294,6 @@
   </si>
   <si>
     <t>"Date of birth"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    class Meta:
-        verbose_name = 'CustomerUserProfile'
-        verbose_name_plural = 'CustomerUserProfiles'</t>
   </si>
   <si>
     <t xml:space="preserve">    class Meta:
@@ -345,6 +322,14 @@
   </si>
   <si>
     <t>CustomerUserProfileB2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    class Meta:
+        verbose_name = 'CustomerUserProfileB2C'
+        verbose_name_plural = 'CustomerUserProfilesB2C'</t>
+  </si>
+  <si>
+    <t>app_name</t>
   </si>
 </sst>
 </file>
@@ -714,540 +699,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="12" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
       <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="V24" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:Z24" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1256,20 +1462,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9B5A58-1C46-C049-BB10-15F181A5CEB2}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1279,20 +1488,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3437436C-0333-4745-A37A-F264C9D53FDF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>37</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1302,66 +1514,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,27 +1597,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC848DF8-2DCC-D442-88F0-8D70EA2B49CF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="122.33203125" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,26 +1629,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5DCB6D-D252-554A-AA6D-EF7613AF9735}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,18 +1662,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCD04C-73D9-ED48-83F8-2B0724B93DB6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1448,18 +1688,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9946-B381-0247-B0AA-E67A7DD58800}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1469,18 +1714,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D736743-F982-B748-AF4D-941EEF6BA5FF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1490,52 +1740,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1545,28 +1766,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F79C244-79FF-7741-872A-7F2260E76274}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
+++ b/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CBC38A-62A0-FD4B-9CCC-E54A69FCA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B22353-AA28-2643-BC01-41B377E0F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="14880" windowHeight="18380" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="1060" yWindow="1740" windowWidth="38400" windowHeight="21100" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="apps" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$AB$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>models.DateTimeField</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>firstname</t>
   </si>
   <si>
     <t>models.EmailField()</t>
@@ -330,6 +324,36 @@
   </si>
   <si>
     <t>app_name</t>
+  </si>
+  <si>
+    <t>feker_function</t>
+  </si>
+  <si>
+    <t>faker_type</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>uri()</t>
+  </si>
+  <si>
+    <t>address()</t>
+  </si>
+  <si>
+    <t>zipcode()</t>
+  </si>
+  <si>
+    <t>text(max_nb_chars=200)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date_of_birth(minimum_age=18, maximum_age=90)</t>
   </si>
 </sst>
 </file>
@@ -699,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,13 +735,13 @@
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="13" width="11.1640625" customWidth="1"/>
+    <col min="6" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -735,159 +759,179 @@
         <v>28</v>
       </c>
       <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G24" si="0">B2&amp;"()"</f>
+        <v>first_name()</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="X2" s="2">
         <v>1</v>
       </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>last_name()</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="X3" s="2">
         <v>1</v>
       </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="X4" s="2">
         <v>1</v>
       </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -896,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -904,20 +948,24 @@
       <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="V5" s="2">
-        <v>1</v>
-      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>email()</v>
+      </c>
+      <c r="T5" s="2"/>
       <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -926,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -934,21 +982,25 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="V6" s="2">
-        <v>1</v>
-      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>phone()</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
       <c r="X6" s="2">
         <v>1</v>
       </c>
       <c r="Z6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -957,7 +1009,7 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -965,8 +1017,8 @@
       <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="2">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>94</v>
       </c>
       <c r="X7" s="2">
         <v>1</v>
@@ -974,10 +1026,13 @@
       <c r="Z7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -986,7 +1041,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -994,8 +1049,8 @@
       <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="2">
-        <v>1</v>
+      <c r="G8" t="s">
+        <v>95</v>
       </c>
       <c r="X8" s="2">
         <v>1</v>
@@ -1003,10 +1058,13 @@
       <c r="Z8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -1015,7 +1073,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1023,20 +1081,20 @@
       <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="2"/>
       <c r="X9" s="2">
         <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -1045,7 +1103,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
@@ -1053,21 +1111,25 @@
       <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>city()</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
       <c r="X10" s="2">
         <v>1</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -1076,7 +1138,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -1084,21 +1146,25 @@
       <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="V11" s="2">
-        <v>1</v>
-      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>state()</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
       <c r="X11" s="2">
         <v>1</v>
       </c>
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -1107,7 +1173,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -1115,20 +1181,23 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="V12" s="2">
-        <v>1</v>
-      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U12" s="2"/>
       <c r="X12" s="2">
         <v>1</v>
       </c>
       <c r="Z12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
@@ -1137,7 +1206,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -1145,20 +1214,24 @@
       <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="V13" s="2">
-        <v>1</v>
-      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>country()</v>
+      </c>
+      <c r="V13" s="2"/>
       <c r="X13" s="2">
         <v>1</v>
       </c>
       <c r="Z13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
@@ -1167,7 +1240,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1175,19 +1248,22 @@
       <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="V14" s="2">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>97</v>
       </c>
       <c r="X14" s="2">
         <v>1</v>
       </c>
-      <c r="Z14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1196,7 +1272,7 @@
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1204,16 +1280,19 @@
       <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="2">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>98</v>
       </c>
       <c r="X15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1222,7 +1301,7 @@
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -1230,123 +1309,141 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="2">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>98</v>
       </c>
       <c r="X16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="V17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>username()</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>first_name()</v>
       </c>
       <c r="X19" s="2">
         <v>1</v>
       </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>last_name()</v>
       </c>
       <c r="X20" s="2">
         <v>1</v>
       </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1355,27 +1452,31 @@
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="V21" s="2">
-        <v>1</v>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>email()</v>
       </c>
       <c r="X21" s="2">
         <v>1</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1384,76 +1485,83 @@
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="2">
-        <v>1</v>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>phone()</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
       </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
       </c>
       <c r="X23" s="2">
         <v>1</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>86</v>
       </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="V24" s="2"/>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Z24" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}"/>
+  <autoFilter ref="B1:AB24" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1472,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
@@ -1498,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
@@ -1528,7 +1636,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1539,46 +1647,46 @@
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1610,7 +1718,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1643,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1672,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1698,7 +1806,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1724,7 +1832,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1750,7 +1858,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1779,7 +1887,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1790,13 +1898,13 @@
     </row>
     <row r="2" spans="1:3" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
+++ b/CRUDCreateCode/data/input/models/CustomerB2C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B22353-AA28-2643-BC01-41B377E0F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187CC02-9110-134E-BC6A-2F8F9B074603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1740" windowWidth="38400" windowHeight="21100" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>Variable</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>date_of_birth(minimum_age=18, maximum_age=90)</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>phone_number()</t>
+  </si>
+  <si>
+    <t>user_name()</t>
   </si>
 </sst>
 </file>
@@ -725,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,10 +857,12 @@
         <v>69</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G24" si="0">B2&amp;"()"</f>
+        <f t="shared" ref="G2:G22" si="0">B2&amp;"()"</f>
         <v>first_name()</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
@@ -883,7 +897,9 @@
         <f t="shared" si="0"/>
         <v>last_name()</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="X3" s="2">
         <v>1</v>
       </c>
@@ -917,7 +933,9 @@
       <c r="G4" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="X4" s="2">
         <v>1</v>
       </c>
@@ -952,6 +970,9 @@
         <f t="shared" si="0"/>
         <v>email()</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="X5" s="2">
         <v>1</v>
@@ -982,9 +1003,11 @@
       <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>phone()</v>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1020,6 +1043,9 @@
       <c r="G7" t="s">
         <v>94</v>
       </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
       <c r="X7" s="2">
         <v>1</v>
       </c>
@@ -1052,6 +1078,9 @@
       <c r="G8" t="s">
         <v>95</v>
       </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
       <c r="X8" s="2">
         <v>1</v>
       </c>
@@ -1080,6 +1109,9 @@
       </c>
       <c r="F9" t="s">
         <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="X9" s="2">
@@ -1115,6 +1147,9 @@
         <f t="shared" si="0"/>
         <v>city()</v>
       </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="X10" s="2">
@@ -1150,6 +1185,9 @@
         <f t="shared" si="0"/>
         <v>state()</v>
       </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="X11" s="2">
@@ -1184,6 +1222,9 @@
       <c r="G12" t="s">
         <v>96</v>
       </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="X12" s="2">
         <v>1</v>
@@ -1218,6 +1259,9 @@
         <f t="shared" si="0"/>
         <v>country()</v>
       </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="X13" s="2">
         <v>1</v>
@@ -1251,6 +1295,9 @@
       <c r="G14" t="s">
         <v>97</v>
       </c>
+      <c r="H14" t="s">
+        <v>100</v>
+      </c>
       <c r="X14" s="2">
         <v>1</v>
       </c>
@@ -1364,9 +1411,11 @@
       <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>username()</v>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
       </c>
       <c r="X18" s="2">
         <v>1</v>
@@ -1398,6 +1447,9 @@
         <f t="shared" si="0"/>
         <v>first_name()</v>
       </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
       <c r="X19" s="2">
         <v>1</v>
       </c>
@@ -1431,6 +1483,9 @@
         <f t="shared" si="0"/>
         <v>last_name()</v>
       </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
       <c r="X20" s="2">
         <v>1</v>
       </c>
@@ -1464,6 +1519,9 @@
         <f t="shared" si="0"/>
         <v>email()</v>
       </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
       <c r="X21" s="2">
         <v>1</v>
       </c>
@@ -1493,9 +1551,11 @@
       <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>phone()</v>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
